--- a/src/test/resources/ExcelSheet/excel.xlsx
+++ b/src/test/resources/ExcelSheet/excel.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="5" r:id="rId1"/>
+    <sheet name="SkillCheck" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Skill_name</t>
   </si>
@@ -59,7 +60,16 @@
     <t>Required</t>
   </si>
   <si>
-    <t>VeryGood</t>
+    <t>sivanea</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>banuya</t>
   </si>
 </sst>
 </file>
@@ -414,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -486,6 +496,67 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelSheet/excel.xlsx
+++ b/src/test/resources/ExcelSheet/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daclas\Desktop\OrangeHrm\ScreenshotListener\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\orange\OrangeTest\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Skill_name</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>banuya</t>
+  </si>
+  <si>
+    <t>Requred</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -454,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
